--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shruti Infotech 101" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +16,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>gstin: 30BBPPP8605M1Z7</t>
+  </si>
+  <si>
+    <t>SrNo.</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Terms and conditions apply as per norms JPT001</t>
+  </si>
+  <si>
+    <t>DC  no:23-24QShruti101</t>
+  </si>
+  <si>
+    <t>client: Shruti Infotech</t>
+  </si>
+  <si>
+    <t>date: 31/03/2023</t>
+  </si>
+  <si>
+    <t>Billing Address: Porvorim Goa</t>
+  </si>
+  <si>
+    <t>Shipping Address: Porvorim Goa</t>
+  </si>
+  <si>
+    <t>Tvse Msp 270 Printer</t>
+  </si>
+  <si>
+    <t>Ref: Returned of the material</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +375,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Shruti Infotech 101" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,47 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>gstin: 30BBPPP8605M1Z7</t>
-  </si>
-  <si>
-    <t>SrNo.</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Terms and conditions apply as per norms JPT001</t>
-  </si>
-  <si>
-    <t>DC  no:23-24QShruti101</t>
-  </si>
-  <si>
-    <t>client: Shruti Infotech</t>
-  </si>
-  <si>
-    <t>date: 31/03/2023</t>
-  </si>
-  <si>
-    <t>Billing Address: Porvorim Goa</t>
-  </si>
-  <si>
-    <t>Shipping Address: Porvorim Goa</t>
-  </si>
-  <si>
-    <t>Tvse Msp 270 Printer</t>
-  </si>
-  <si>
-    <t>Ref: Returned of the material</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,11 +49,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,76 +331,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +18,72 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
+  </si>
+  <si>
+    <t>Billing Address: Verna Goa</t>
+  </si>
+  <si>
+    <t>gstin: 30BBPPP8605M1Z7</t>
+  </si>
+  <si>
+    <t>Shipping Address: Verna Goa</t>
+  </si>
+  <si>
+    <t>SrNo.</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Terms and conditions apply as per norms JPT001</t>
+  </si>
+  <si>
+    <t>DC  no:23-24QPutz101</t>
+  </si>
+  <si>
+    <t>date: 17/04/2023</t>
+  </si>
+  <si>
+    <t>Part No.</t>
+  </si>
+  <si>
+    <t>Screw Conveyor Bellow_Dia 224x500mm</t>
+  </si>
+  <si>
+    <t>Ref: Replacement towards invoice number - b23-24MQ101</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,12 +102,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +539,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22">
+        <v>616026</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -64,13 +64,13 @@
     <t>DC  no:23-24QPutz102</t>
   </si>
   <si>
-    <t>date: 22/04/2023</t>
-  </si>
-  <si>
     <t>Ref: Replacement towards invoice number - b23-24MQ102</t>
   </si>
   <si>
     <t>Screw Conveyor Bellow_Dia 174x500mm</t>
+  </si>
+  <si>
+    <t>date: 26/04/2023</t>
   </si>
 </sst>
 </file>
@@ -665,14 +665,14 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
   </cols>
@@ -685,7 +685,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -696,7 +696,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>615698</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="12">
         <v>5</v>

--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
     <sheet name="Putz 102" sheetId="2" r:id="rId2"/>
+    <sheet name="U V Infotech 103" sheetId="3" r:id="rId3"/>
+    <sheet name="Namrata 104" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -70,7 +72,59 @@
     <t>Screw Conveyor Bellow_Dia 174x500mm</t>
   </si>
   <si>
-    <t>date: 26/04/2023</t>
+    <t>date: 05/05/2023</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>151308917 (16-03-2023)</t>
+  </si>
+  <si>
+    <t>client: U V Infotech</t>
+  </si>
+  <si>
+    <t>DC  no:23-24QUV103</t>
+  </si>
+  <si>
+    <t>Billing Address: Office no. 12 , 1st Floor, Hanuman Terrace (A wing ) , Tara temple, lane, Lamination Road, Grand road East. PIN CODE-400007</t>
+  </si>
+  <si>
+    <t>Shipping Address: Office no. 12 , 1st Floor, Hanuman Terrace (A wing ) , Tara temple, lane, Lamination Road, Grand road East. PIN CODE-400007</t>
+  </si>
+  <si>
+    <t>Ref: Return of material (Invoice number - UV/23-24/181)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5MP IP VERIFOCALDOME I-HID5PI-VS 483367C2276A00023 </t>
+  </si>
+  <si>
+    <t>date: 06/05/2023</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>DC  no:23-24QNamrata 104</t>
+  </si>
+  <si>
+    <t>client: Namrata Rubber Product Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping Address: Gala No. A/2, Sai Sneha Industrial Estate,
+Phatak Road, Near. H.P. Gas Godown
+Bhayander (E) – 401105
+</t>
+  </si>
+  <si>
+    <t>Ref: Rejected Material</t>
+  </si>
+  <si>
+    <t>date: 09/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Address: Gala No. A/2, Sai Sneha Industrial Estate, Phatak Road, Near. H.P. Gas Godown Bhayander (E) – 401105
+</t>
   </si>
 </sst>
 </file>
@@ -664,6 +718,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13">
+        <v>615698</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -671,37 +950,37 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
@@ -717,16 +996,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -740,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -751,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
     <sheet name="Putz 102" sheetId="2" r:id="rId2"/>
     <sheet name="U V Infotech 103" sheetId="3" r:id="rId3"/>
     <sheet name="Namrata 104" sheetId="4" r:id="rId4"/>
+    <sheet name="El Shaddai 105" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -125,13 +126,43 @@
   <si>
     <t xml:space="preserve">Billing Address: Gala No. A/2, Sai Sneha Industrial Estate, Phatak Road, Near. H.P. Gas Godown Bhayander (E) – 401105
 </t>
+  </si>
+  <si>
+    <t>client: Nerul Village Panchayat</t>
+  </si>
+  <si>
+    <t>Ref: Delivery of material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity </t>
+  </si>
+  <si>
+    <t>DC  no:23-24QEl Shaddai105</t>
+  </si>
+  <si>
+    <t>Billing Address: El Shaddai</t>
+  </si>
+  <si>
+    <t>Shipping Address: El Shaddai Mapusa Goa</t>
+  </si>
+  <si>
+    <t>Honeywell 2MP IP Fixed Lens BulletCamera Cam, Built in Mic, 4MM / 2.8MM Lens, POE, IP67, VCA-Tripwire/Perimeter</t>
+  </si>
+  <si>
+    <t>Honeywell 2MP IP Fixed Lens Dome Camera Cam, Built in Mic, 4MM / 2.8MM Lens, POE, IP67, VCA-Tripwire/Perimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honeywell 4 MP Motorized Bullet Varifocal Motorized Lens 2.8-12mm, IH+265/ H.265/H.264 ,120dB WDR,Smart IR Range Up to 80 m Built-in Mic,SD Card Slot, Reset Button, ,Full Metal Housing,IP 67,IK10 </t>
+  </si>
+  <si>
+    <t>date: 30/05/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +180,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -272,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -299,6 +336,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -325,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +658,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,33 +671,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -662,11 +711,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -732,33 +781,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -772,11 +821,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -848,33 +897,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -888,11 +937,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -943,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,33 +1006,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -997,11 +1046,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1047,4 +1096,135 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>Honeywell 2MP IP Fixed Lens BulletCamera Cam, Built in Mic, 4MM / 2.8MM Lens, POE, IP67, VCA-Tripwire/Perimeter</t>
-  </si>
-  <si>
-    <t>Honeywell 2MP IP Fixed Lens Dome Camera Cam, Built in Mic, 4MM / 2.8MM Lens, POE, IP67, VCA-Tripwire/Perimeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Honeywell 4 MP Motorized Bullet Varifocal Motorized Lens 2.8-12mm, IH+265/ H.265/H.264 ,120dB WDR,Smart IR Range Up to 80 m Built-in Mic,SD Card Slot, Reset Button, ,Full Metal Housing,IP 67,IK10 </t>
   </si>
   <si>
     <t>date: 30/05/2023</t>
@@ -309,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -371,9 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1113,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1174,7 +1165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1182,38 +1173,16 @@
         <v>39</v>
       </c>
       <c r="C8" s="14">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="U V Infotech 103" sheetId="3" r:id="rId3"/>
     <sheet name="Namrata 104" sheetId="4" r:id="rId4"/>
     <sheet name="El Shaddai 105" sheetId="5" r:id="rId5"/>
+    <sheet name="Namrata 106" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -150,6 +151,26 @@
   </si>
   <si>
     <t>date: 30/05/2023</t>
+  </si>
+  <si>
+    <t>DC  no:23-24QNamrata 106</t>
+  </si>
+  <si>
+    <t>date: 15/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Address: Shop.no 6 A Wing,
+Woodland Complex, Near Holly Cross School,
+Sheetal Nagar, Mira Road € Thane
+401107
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping Address: Shop.no 6 A Wing,
+Woodland Complex, Near Holly Cross School,
+Sheetal Nagar, Mira Road € Thane
+401107
+</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1005,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1196,4 +1217,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>616026</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Namrata 104" sheetId="4" r:id="rId4"/>
     <sheet name="El Shaddai 105" sheetId="5" r:id="rId5"/>
     <sheet name="Namrata 106" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -172,12 +173,24 @@
 401107
 </t>
   </si>
+  <si>
+    <t>DC  no:23-24QEl Shaddai201</t>
+  </si>
+  <si>
+    <t>date: 10/07/2023</t>
+  </si>
+  <si>
+    <t>client: El Shaddai</t>
+  </si>
+  <si>
+    <t>Enclosure with mounting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +217,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -320,11 +339,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -386,6 +418,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,7 +1159,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,7 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -1327,4 +1371,111 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
+        <v>1</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,10 @@
     <sheet name="Namrata 104" sheetId="4" r:id="rId4"/>
     <sheet name="El Shaddai 105" sheetId="5" r:id="rId5"/>
     <sheet name="Namrata 106" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="El Shaddai 107" sheetId="7" r:id="rId7"/>
+    <sheet name="El Shaddai 108" sheetId="10" r:id="rId8"/>
+    <sheet name="El Shaddai 201" sheetId="8" r:id="rId9"/>
+    <sheet name="El Shaddai 202" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -177,20 +180,26 @@
     <t>DC  no:23-24QEl Shaddai201</t>
   </si>
   <si>
+    <t>client: El Shaddai</t>
+  </si>
+  <si>
+    <t>date: 27/07/2023</t>
+  </si>
+  <si>
+    <t>Enclosure with mounting</t>
+  </si>
+  <si>
+    <t>DC  no:23-24QEl Shaddai202</t>
+  </si>
+  <si>
     <t>date: 10/07/2023</t>
-  </si>
-  <si>
-    <t>client: El Shaddai</t>
-  </si>
-  <si>
-    <t>Enclosure with mounting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,12 +226,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -339,24 +342,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -418,18 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,6 +797,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
@@ -1159,7 +1244,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,8 +1462,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,12 +1696,12 @@
       <c r="C1" s="19"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
@@ -1410,7 +1710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
@@ -1428,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1741,7 @@
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1449,13 +1749,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="14">
         <v>9</v>
       </c>
     </row>

--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="El Shaddai 108" sheetId="10" r:id="rId8"/>
     <sheet name="El Shaddai 201" sheetId="8" r:id="rId9"/>
     <sheet name="El Shaddai 202" sheetId="9" r:id="rId10"/>
+    <sheet name="Nerul 203" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -194,12 +195,34 @@
   <si>
     <t>date: 10/07/2023</t>
   </si>
+  <si>
+    <t>DC  no:23-24QNerul203</t>
+  </si>
+  <si>
+    <t>Billing Address: Nerul Village Panchayat</t>
+  </si>
+  <si>
+    <t>Shipping Address: Nerul Village Panchayat</t>
+  </si>
+  <si>
+    <t>date: 05/09/2023</t>
+  </si>
+  <si>
+    <t>Cabling with CAT 6 Dlink cable with casing, cabling, laying</t>
+  </si>
+  <si>
+    <t>305mtrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlink Wall Mount Rack 6U x 550 W x 450 D, with Standard
+accessories </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +248,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -408,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +726,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
@@ -704,7 +735,7 @@
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -715,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -726,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="35.4" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -735,7 +766,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -744,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -753,7 +784,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -767,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="61.8" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -781,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -801,18 +832,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -823,7 +854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
         <v>46</v>
       </c>
@@ -834,7 +865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
@@ -843,7 +874,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -852,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.4" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -861,7 +892,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -872,7 +903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30.6" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -883,13 +914,131 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6" customHeight="1">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="55.8" customHeight="1">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -912,7 +1061,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
@@ -921,7 +1070,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
@@ -932,7 +1081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="47.4" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="35.4" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -952,7 +1101,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -961,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -970,7 +1119,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="22.8" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -987,7 +1136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1004,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1177,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
@@ -1037,7 +1186,7 @@
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="31.8" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
@@ -1059,7 +1208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="44.4" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
@@ -1068,7 +1217,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1077,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1235,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="22.8" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1097,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29.4" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1108,12 +1257,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="E9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1286,7 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -1146,7 +1295,7 @@
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
@@ -1157,7 +1306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
@@ -1168,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="52.8" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1326,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1186,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="62.4" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -1195,7 +1344,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="22.8" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1223,7 +1372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1396,7 @@
       <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="50.109375" customWidth="1"/>
@@ -1255,7 +1404,7 @@
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -1266,7 +1415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
         <v>33</v>
       </c>
@@ -1277,7 +1426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="35.4" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
@@ -1286,7 +1435,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1295,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -1304,7 +1453,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="39.6">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1326,12 +1475,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1505,7 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -1365,7 +1514,7 @@
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
@@ -1376,7 +1525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
@@ -1387,7 +1536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="52.8" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>43</v>
       </c>
@@ -1396,7 +1545,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1405,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>44</v>
       </c>
@@ -1414,7 +1563,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="22.8" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1442,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1466,14 +1615,14 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -1484,7 +1633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
         <v>33</v>
       </c>
@@ -1495,7 +1644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
@@ -1504,7 +1653,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1513,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.4" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -1522,7 +1671,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30.6" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1544,12 +1693,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1722,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="50.109375" customWidth="1"/>
@@ -1581,7 +1730,7 @@
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +1741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
         <v>46</v>
       </c>
@@ -1603,7 +1752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="35.4" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1761,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1621,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -1630,7 +1779,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1652,12 +1801,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1681,14 +1830,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
         <v>45</v>
       </c>
@@ -1699,7 +1848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
         <v>46</v>
       </c>
@@ -1710,7 +1859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
@@ -1719,7 +1868,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1728,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.4" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -1737,7 +1886,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30.6" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1759,12 +1908,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>

--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -940,12 +940,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>

--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="10"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="El Shaddai 201" sheetId="8" r:id="rId9"/>
     <sheet name="El Shaddai 202" sheetId="9" r:id="rId10"/>
     <sheet name="Nerul 203" sheetId="11" r:id="rId11"/>
+    <sheet name="Putz 204" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -216,6 +217,24 @@
   <si>
     <t xml:space="preserve">Dlink Wall Mount Rack 6U x 550 W x 450 D, with Standard
 accessories </t>
+  </si>
+  <si>
+    <t>DC  no:23-24QPutz204</t>
+  </si>
+  <si>
+    <t>date: 21/09/2023</t>
+  </si>
+  <si>
+    <t>Sample piece for Water Bellow_Canvas_ID 10 0mm (Part number - 728488)</t>
+  </si>
+  <si>
+    <t>Substitute for Water Bellow_Canvas_ID 10 0mm (Part number - 728488)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref: 1) Sample piece 728488                                                                              </t>
+  </si>
+  <si>
+    <t>2) Substituete for 728488</t>
   </si>
 </sst>
 </file>
@@ -410,6 +429,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -436,9 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,33 +755,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -776,11 +795,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -844,33 +863,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -884,11 +903,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -939,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -951,33 +970,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -991,11 +1010,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1025,7 +1044,7 @@
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="14">
@@ -1038,6 +1057,114 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.799999999999997" customHeight="1">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1185,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1071,33 +1198,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.4" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1111,11 +1238,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1187,33 +1314,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.8" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1227,11 +1354,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1296,33 +1423,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="52.8" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1336,11 +1463,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="62.4" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1405,33 +1532,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1445,11 +1572,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1515,33 +1642,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="52.8" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1555,11 +1682,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1623,33 +1750,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1663,11 +1790,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1731,33 +1858,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1771,11 +1898,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1838,33 +1965,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1878,11 +2005,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>

--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -959,7 +959,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
